--- a/AED_CP23_Saúde_Copia.xlsx
+++ b/AED_CP23_Saúde_Copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Projeto_AED_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAECBF5-85CF-4D57-9DB8-8959ABAF7277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B5A4C8-2420-4099-A434-FABB665EB50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="67">
   <si>
     <t>Entidade</t>
   </si>
@@ -223,6 +223,63 @@
   </si>
   <si>
     <t>Definir classes de idades e analisar níveis de ansiedade por género</t>
+  </si>
+  <si>
+    <t>Como é que a saúde psicológica e o bem-estar dos alunos variam consoante o ciclo de escolaridade?</t>
+  </si>
+  <si>
+    <t>O género tem impacto nas respostas relacionadas com saúde psicológica e bem-estar? Há diferenças significativas nas respostas de rapazes e raparigas?</t>
+  </si>
+  <si>
+    <t>Como a idade dos alunos afeta as respostas sobre saúde psicológica? Existe uma tendência de aumento ou diminuição dos problemas de saúde mental à medida que os alunos crescem?</t>
+  </si>
+  <si>
+    <t>Existe uma correlação entre o número de horas de sono e as respostas relacionadas com sintomas de depressão, ansiedade ou stress? O sono parece afetar o bem-estar psicológico de forma significativa?</t>
+  </si>
+  <si>
+    <r>
+      <t>Correlação entre níveis de depressão e preocupações (v76)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pergunta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "Existe uma relação entre a preocupação (v76) e os níveis de depressão?"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exploração</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A variável "v76" mede o grau de preocupação. Verificar se os alunos que se preocupam mais (respostas mais altas em "v76") têm também respostas mais altas nas variáveis de depressão (v39 a v57).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -452,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -490,6 +547,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11730,7 +11794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:O619"/>
     </sheetView>
@@ -41194,10 +41258,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66113A2D-E822-48F4-BF04-52760E0C20DD}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41442,31 +41506,40 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13">
@@ -41477,8 +41550,11 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
@@ -41489,6 +41565,27 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="30" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AED_CP23_Saúde_Copia.xlsx
+++ b/AED_CP23_Saúde_Copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Projeto_AED_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B5A4C8-2420-4099-A434-FABB665EB50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B18844-F021-4D71-B0D4-78B61C97C8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="65">
   <si>
     <t>Entidade</t>
   </si>
@@ -213,13 +213,7 @@
     <t>Existe alguma relação entre as horas de sono e a média das respostas à depressão</t>
   </si>
   <si>
-    <t>relação média horas de sono por género e idade</t>
-  </si>
-  <si>
     <t>Relação média das respostas por género (gráfico de 2 barras por género, por idade)</t>
-  </si>
-  <si>
-    <t>Média das perguntas de pessoas que possivelmente chumbaram de ano</t>
   </si>
   <si>
     <t>Definir classes de idades e analisar níveis de ansiedade por género</t>
@@ -41260,8 +41254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66113A2D-E822-48F4-BF04-52760E0C20DD}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G9" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41457,7 +41451,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -41484,7 +41478,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="18"/>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -41503,7 +41497,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="17"/>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -41535,9 +41529,6 @@
         <v>3</v>
       </c>
       <c r="F19" s="23"/>
-      <c r="J19" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
@@ -41550,9 +41541,6 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="18"/>
-      <c r="J20" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
@@ -41568,7 +41556,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J22" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -41576,7 +41564,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J24" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -41584,7 +41572,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J26" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/AED_CP23_Saúde_Copia.xlsx
+++ b/AED_CP23_Saúde_Copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Projeto_AED_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B18844-F021-4D71-B0D4-78B61C97C8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFE8A4-65F3-44C5-B43B-A81DEA593C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="60">
   <si>
     <t>Entidade</t>
   </si>
@@ -210,70 +210,19 @@
     <t>Questões:</t>
   </si>
   <si>
-    <t>Existe alguma relação entre as horas de sono e a média das respostas à depressão</t>
-  </si>
-  <si>
-    <t>Relação média das respostas por género (gráfico de 2 barras por género, por idade)</t>
-  </si>
-  <si>
-    <t>Definir classes de idades e analisar níveis de ansiedade por género</t>
-  </si>
-  <si>
-    <t>Como é que a saúde psicológica e o bem-estar dos alunos variam consoante o ciclo de escolaridade?</t>
-  </si>
-  <si>
     <t>O género tem impacto nas respostas relacionadas com saúde psicológica e bem-estar? Há diferenças significativas nas respostas de rapazes e raparigas?</t>
   </si>
   <si>
-    <t>Como a idade dos alunos afeta as respostas sobre saúde psicológica? Existe uma tendência de aumento ou diminuição dos problemas de saúde mental à medida que os alunos crescem?</t>
+    <t>"Existe uma correlação entre o número de horas de sono e os sintomas de depressão, ansiedade ou stress? O sono parece afetar o bem-estar psicológico de forma significativa?"</t>
   </si>
   <si>
-    <t>Existe uma correlação entre o número de horas de sono e as respostas relacionadas com sintomas de depressão, ansiedade ou stress? O sono parece afetar o bem-estar psicológico de forma significativa?</t>
+    <t>"Como os níveis de ansiedade variam por género e idade? Qual é a média das respostas relacionadas com saúde psicológica por género e idade?"</t>
   </si>
   <si>
-    <r>
-      <t>Correlação entre níveis de depressão e preocupações (v76)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
+    <t>"Existe uma relação entre a preocupação (v76) e os níveis de depressão?"</t>
   </si>
   <si>
-    <r>
-      <t>Pergunta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: "Existe uma relação entre a preocupação (v76) e os níveis de depressão?"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Exploração</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: A variável "v76" mede o grau de preocupação. Verificar se os alunos que se preocupam mais (respostas mais altas em "v76") têm também respostas mais altas nas variáveis de depressão (v39 a v57).</t>
-    </r>
+    <t>"Como a percepção de não ter um futuro (v46) afeta a saúde psicológica dos alunos? Há uma maior prevalência de sintomas depressivos entre os alunos que sentem que não têm nada a esperar do futuro?"</t>
   </si>
 </sst>
 </file>
@@ -503,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -541,13 +490,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -41252,10 +41194,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66113A2D-E822-48F4-BF04-52760E0C20DD}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G9" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41451,7 +41393,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -41463,7 +41405,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -41500,29 +41442,23 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="F17" s="23"/>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="F18" s="23"/>
-      <c r="J18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19">
@@ -41530,7 +41466,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13">
@@ -41542,7 +41478,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
@@ -41553,27 +41489,6 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J22" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J24" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J26" s="30" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AED_CP23_Saúde_Copia.xlsx
+++ b/AED_CP23_Saúde_Copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Projeto_AED_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFE8A4-65F3-44C5-B43B-A81DEA593C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75540E68-2B40-4BB0-A0A7-53E9FA9D08BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="62">
   <si>
     <t>Entidade</t>
   </si>
@@ -216,13 +216,19 @@
     <t>"Existe uma correlação entre o número de horas de sono e os sintomas de depressão, ansiedade ou stress? O sono parece afetar o bem-estar psicológico de forma significativa?"</t>
   </si>
   <si>
-    <t>"Como os níveis de ansiedade variam por género e idade? Qual é a média das respostas relacionadas com saúde psicológica por género e idade?"</t>
+    <t>"Como a percepção de não ter um futuro (v46) afeta a saúde psicológica dos alunos? Há uma maior prevalência de sintomas depressivos entre os alunos que sentem que não têm nada a esperar do futuro?"</t>
   </si>
   <si>
-    <t>"Existe uma relação entre a preocupação (v76) e os níveis de depressão?"</t>
+    <t>Gráfico de barras com género por média de respostas da depressão</t>
   </si>
   <si>
-    <t>"Como a percepção de não ter um futuro (v46) afeta a saúde psicológica dos alunos? Há uma maior prevalência de sintomas depressivos entre os alunos que sentem que não têm nada a esperar do futuro?"</t>
+    <t>Horas de sono vs idade (frequencia)</t>
+  </si>
+  <si>
+    <t>Gráfico de barras com género por horas de sono</t>
+  </si>
+  <si>
+    <t>Género vs depressão</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -491,12 +497,558 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="117">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11252,7 +11804,7 @@
     <dataField name="Frequência relativa" fld="0" showDataAs="percentOfTotal" baseField="14" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="6">
+    <format dxfId="114">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="15" count="1">
@@ -11261,7 +11813,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="113">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="15" count="1">
@@ -11270,7 +11822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="112">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="15" count="1">
@@ -11279,7 +11831,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="111">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="15" count="1">
@@ -11288,7 +11840,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="110">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="15" count="1">
@@ -11297,7 +11849,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="15" count="5">
@@ -11433,9 +11985,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03A0B198-6868-455B-9C39-C456BC195ECC}" name="Table2" displayName="Table2" ref="B3:D8" totalsRowShown="0">
   <autoFilter ref="B3:D8" xr:uid="{03A0B198-6868-455B-9C39-C456BC195ECC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{48D04677-8BF5-4C29-A0E1-FFCC298DC07C}" name="Género" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{48D04677-8BF5-4C29-A0E1-FFCC298DC07C}" name="Género" dataDxfId="116"/>
     <tableColumn id="2" xr3:uid="{9B18BB85-B588-4081-9759-840C03F361E1}" name="n"/>
-    <tableColumn id="3" xr3:uid="{4A16D1C0-537B-4F3B-84B9-437A7CF75B1A}" name="Frequência relativa" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4A16D1C0-537B-4F3B-84B9-437A7CF75B1A}" name="Frequência relativa" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -40845,7 +41397,7 @@
   </sheetData>
   <autoFilter ref="A1:O619" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro! " error="Apenas valores entre 1 a 4 são aceites." sqref="C1:C1048576" xr:uid="{6F1587AE-DAA2-46BB-AD76-7D0BE900D9A9}">
@@ -40958,8 +41510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D901F816-F692-4C3B-9573-117558645CFF}">
   <dimension ref="B3:G9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40983,58 +41535,58 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="29">
         <v>41</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="30">
         <v>8.6624319522260629E-2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
+      <c r="B5" s="31">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="29">
         <v>105</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="30">
         <v>0.23160368522334429</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8">
+      <c r="B6" s="31">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="29">
         <v>175</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="30">
         <v>0.3337306925971969</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="B7" s="31">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="29">
         <v>144</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="30">
         <v>0.22288448766199487</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="29">
         <v>87</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="30">
         <v>0.12515681499520331</v>
       </c>
     </row>
@@ -41042,7 +41594,7 @@
       <c r="B9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="28">
         <v>552</v>
       </c>
       <c r="D9" s="1">
@@ -41196,8 +41748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66113A2D-E822-48F4-BF04-52760E0C20DD}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="F7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41374,8 +41926,11 @@
         <v>31</v>
       </c>
       <c r="F12" s="23"/>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -41392,8 +41947,11 @@
         <v>32</v>
       </c>
       <c r="F13" s="23"/>
+      <c r="I13">
+        <v>2</v>
+      </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -41405,7 +41963,7 @@
       </c>
       <c r="F14" s="23"/>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -41419,8 +41977,11 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="18"/>
+      <c r="I15">
+        <v>3</v>
+      </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -41438,11 +41999,14 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="17"/>
+      <c r="I16">
+        <v>4</v>
+      </c>
       <c r="J16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17">
@@ -41450,23 +42014,35 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13">
@@ -41477,8 +42053,11 @@
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
@@ -41489,6 +42068,9 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="20"/>
+      <c r="I21">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
